--- a/template_excel/template_divisi.xlsx
+++ b/template_excel/template_divisi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\final_project\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC67A9D0-2D51-4B08-A59F-F3086C624DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB3371D-1EA3-4609-8AEE-2BD661179940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8438C07C-E9B2-4BD5-8D0C-4FB70534F7C5}"/>
   </bookViews>
